--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2562897.057092845</v>
+        <v>2564657.587395631</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>13.35464426286299</v>
       </c>
       <c r="G2" t="n">
         <v>15.16194852731947</v>
@@ -679,34 +679,34 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>15.16194852731947</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>6.478598521151554</v>
       </c>
       <c r="S2" t="n">
         <v>15.16194852731947</v>
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>13.35464426286299</v>
       </c>
-      <c r="C3" t="n">
+      <c r="F3" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="D3" t="n">
+      <c r="G3" t="n">
         <v>15.16194852731947</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>13.58434214447045</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>15.16194852731947</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,26 +974,26 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
         <v>15.16194852731947</v>
-      </c>
-      <c r="C6" t="n">
-        <v>15.16194852731947</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>13.35464426286299</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>13.58434214447045</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>14.93225064571201</v>
@@ -1101,7 +1101,7 @@
         <v>15.16194852731947</v>
       </c>
       <c r="R7" t="n">
-        <v>13.58434214447045</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>104.0154267588403</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>34.37788621061063</v>
       </c>
       <c r="G8" t="n">
-        <v>13.61142920764741</v>
+        <v>13.6114292076474</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>27.5018404688981</v>
+        <v>104.0154267588403</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>43.62747247092891</v>
+        <v>43.62747247092855</v>
       </c>
       <c r="S8" t="n">
-        <v>104.0154267588396</v>
+        <v>104.0154267588403</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>104.0154267588396</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>104.0154267588396</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>104.0154267588396</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>58.24006124125195</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>104.0154267588403</v>
       </c>
       <c r="W9" t="n">
-        <v>91.61678788918587</v>
+        <v>33.37672664793462</v>
       </c>
       <c r="X9" t="n">
-        <v>104.0154267588396</v>
+        <v>104.0154267588403</v>
       </c>
       <c r="Y9" t="n">
-        <v>104.0154267588396</v>
+        <v>104.0154267588403</v>
       </c>
     </row>
     <row r="10">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>68.98239880211176</v>
+        <v>68.98239880211266</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>104.0154267588396</v>
+        <v>104.0154267588403</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>104.0154267588403</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>104.0154267588403</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.63438908707409</v>
+        <v>22.63438908707388</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>104.0154267588396</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>104.0154267588396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189058</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.7762188374877</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>5.890337106877586</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6127326838975</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>80.33989744908959</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444131</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E28" t="n">
-        <v>125.8152577453148</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>108.9065924712583</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428163</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>80.08971311158695</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3793,10 +3793,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>48.47457675531665</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>134.5665975534139</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.78865567647887</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="C2" t="n">
-        <v>38.78865567647887</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="D2" t="n">
-        <v>38.78865567647887</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="E2" t="n">
-        <v>38.78865567647887</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="F2" t="n">
-        <v>31.8431549272754</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="G2" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="H2" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="I2" t="n">
         <v>1.212955882185558</v>
@@ -4342,10 +4342,10 @@
         <v>45.6374650672316</v>
       </c>
       <c r="N2" t="n">
-        <v>60.64779410927788</v>
+        <v>45.6374650672316</v>
       </c>
       <c r="O2" t="n">
-        <v>60.64779410927788</v>
+        <v>45.6374650672316</v>
       </c>
       <c r="P2" t="n">
         <v>60.64779410927788</v>
@@ -4354,28 +4354,28 @@
         <v>60.64779410927788</v>
       </c>
       <c r="R2" t="n">
-        <v>54.10375519902379</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="S2" t="n">
-        <v>38.78865567647887</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="T2" t="n">
-        <v>38.78865567647887</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="U2" t="n">
-        <v>38.78865567647887</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="V2" t="n">
-        <v>38.78865567647887</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="W2" t="n">
-        <v>38.78865567647887</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="X2" t="n">
-        <v>38.78865567647887</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.78865567647887</v>
+        <v>30.01759506418804</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>45.33269458673296</v>
+      </c>
+      <c r="C3" t="n">
+        <v>45.33269458673296</v>
+      </c>
+      <c r="D3" t="n">
+        <v>45.33269458673296</v>
+      </c>
+      <c r="E3" t="n">
         <v>31.8431549272754</v>
       </c>
-      <c r="C3" t="n">
+      <c r="F3" t="n">
         <v>16.52805540473048</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.212955882185558</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.212955882185558</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.212955882185558</v>
       </c>
       <c r="G3" t="n">
         <v>1.212955882185558</v>
@@ -4418,16 +4418,16 @@
         <v>31.23361396627811</v>
       </c>
       <c r="M3" t="n">
-        <v>31.23361396627811</v>
+        <v>45.6374650672316</v>
       </c>
       <c r="N3" t="n">
-        <v>31.23361396627811</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="O3" t="n">
-        <v>31.23361396627811</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="P3" t="n">
-        <v>45.6374650672316</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="Q3" t="n">
         <v>60.64779410927788</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="C4" t="n">
         <v>45.33269458673296</v>
@@ -4476,10 +4476,10 @@
         <v>45.33269458673296</v>
       </c>
       <c r="F4" t="n">
-        <v>31.61113686504564</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="G4" t="n">
-        <v>31.61113686504564</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="H4" t="n">
         <v>31.61113686504564</v>
@@ -4494,46 +4494,46 @@
         <v>1.212955882185558</v>
       </c>
       <c r="L4" t="n">
-        <v>10.74933455546547</v>
+        <v>15.61680698313905</v>
       </c>
       <c r="M4" t="n">
-        <v>25.75966359751175</v>
+        <v>30.62713602518533</v>
       </c>
       <c r="N4" t="n">
-        <v>40.76999263955803</v>
+        <v>45.6374650672316</v>
       </c>
       <c r="O4" t="n">
-        <v>55.78032168160431</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="P4" t="n">
         <v>60.64779410927788</v>
       </c>
       <c r="Q4" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="R4" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="S4" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="T4" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="U4" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="V4" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="W4" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="X4" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="Y4" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
     </row>
     <row r="5">
@@ -4570,16 +4570,16 @@
         <v>1.212955882185558</v>
       </c>
       <c r="K5" t="n">
-        <v>1.212955882185558</v>
+        <v>16.22328492423183</v>
       </c>
       <c r="L5" t="n">
-        <v>1.212955882185558</v>
+        <v>16.22328492423183</v>
       </c>
       <c r="M5" t="n">
         <v>16.22328492423183</v>
       </c>
       <c r="N5" t="n">
-        <v>31.23361396627811</v>
+        <v>30.62713602518533</v>
       </c>
       <c r="O5" t="n">
         <v>45.6374650672316</v>
@@ -4594,19 +4594,19 @@
         <v>45.33269458673296</v>
       </c>
       <c r="S5" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="T5" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="U5" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="V5" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="W5" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="X5" t="n">
         <v>30.01759506418804</v>
@@ -4625,10 +4625,10 @@
         <v>45.33269458673296</v>
       </c>
       <c r="C6" t="n">
-        <v>30.01759506418804</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="D6" t="n">
-        <v>30.01759506418804</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="E6" t="n">
         <v>30.01759506418804</v>
@@ -4637,7 +4637,7 @@
         <v>14.70249554164312</v>
       </c>
       <c r="G6" t="n">
-        <v>1.212955882185558</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="H6" t="n">
         <v>1.212955882185558</v>
@@ -4646,22 +4646,22 @@
         <v>1.212955882185558</v>
       </c>
       <c r="J6" t="n">
-        <v>1.212955882185558</v>
+        <v>7.519576199182469</v>
       </c>
       <c r="K6" t="n">
-        <v>1.212955882185558</v>
+        <v>7.519576199182469</v>
       </c>
       <c r="L6" t="n">
-        <v>16.22328492423183</v>
+        <v>7.519576199182469</v>
       </c>
       <c r="M6" t="n">
-        <v>31.23361396627811</v>
+        <v>22.52990524122875</v>
       </c>
       <c r="N6" t="n">
-        <v>45.6374650672316</v>
+        <v>37.54023428327503</v>
       </c>
       <c r="O6" t="n">
-        <v>60.64779410927788</v>
+        <v>52.55056332532131</v>
       </c>
       <c r="P6" t="n">
         <v>60.64779410927788</v>
@@ -4670,28 +4670,28 @@
         <v>60.64779410927788</v>
       </c>
       <c r="R6" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="S6" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="T6" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="U6" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="V6" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="W6" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="X6" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="Y6" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31.61113686504564</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="C7" t="n">
-        <v>31.61113686504564</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="D7" t="n">
-        <v>31.61113686504564</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="E7" t="n">
-        <v>31.61113686504564</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="F7" t="n">
-        <v>31.61113686504564</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="G7" t="n">
-        <v>31.61113686504564</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="H7" t="n">
-        <v>31.61113686504564</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="I7" t="n">
-        <v>31.61113686504564</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="J7" t="n">
         <v>16.29603734250072</v>
@@ -4731,16 +4731,16 @@
         <v>1.212955882185558</v>
       </c>
       <c r="L7" t="n">
-        <v>10.74933455546547</v>
+        <v>16.22328492423183</v>
       </c>
       <c r="M7" t="n">
-        <v>25.75966359751175</v>
+        <v>31.23361396627811</v>
       </c>
       <c r="N7" t="n">
-        <v>40.76999263955803</v>
+        <v>46.24394300832439</v>
       </c>
       <c r="O7" t="n">
-        <v>55.7803216816043</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="P7" t="n">
         <v>60.64779410927788</v>
@@ -4749,28 +4749,28 @@
         <v>45.33269458673296</v>
       </c>
       <c r="R7" t="n">
-        <v>31.61113686504564</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="S7" t="n">
-        <v>31.61113686504564</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="T7" t="n">
-        <v>31.61113686504564</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="U7" t="n">
-        <v>31.61113686504564</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="V7" t="n">
-        <v>31.61113686504564</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="W7" t="n">
-        <v>31.61113686504564</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="X7" t="n">
-        <v>31.61113686504564</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="Y7" t="n">
-        <v>31.61113686504564</v>
+        <v>45.33269458673296</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56.79529011874449</v>
+        <v>266.9274653891301</v>
       </c>
       <c r="C8" t="n">
-        <v>56.79529011874449</v>
+        <v>266.9274653891301</v>
       </c>
       <c r="D8" t="n">
-        <v>56.79529011874449</v>
+        <v>266.9274653891301</v>
       </c>
       <c r="E8" t="n">
-        <v>56.79529011874449</v>
+        <v>161.8613777539379</v>
       </c>
       <c r="F8" t="n">
-        <v>49.84978936954101</v>
+        <v>127.1362401674625</v>
       </c>
       <c r="G8" t="n">
-        <v>36.10087097797798</v>
+        <v>113.3873217758995</v>
       </c>
       <c r="H8" t="n">
-        <v>36.10087097797798</v>
+        <v>113.3873217758995</v>
       </c>
       <c r="I8" t="n">
-        <v>8.321234140707165</v>
+        <v>8.321234140707226</v>
       </c>
       <c r="J8" t="n">
-        <v>8.321234140707165</v>
+        <v>111.2965066319591</v>
       </c>
       <c r="K8" t="n">
-        <v>8.321234140707165</v>
+        <v>111.2965066319591</v>
       </c>
       <c r="L8" t="n">
-        <v>111.2965066319583</v>
+        <v>142.1198801881906</v>
       </c>
       <c r="M8" t="n">
-        <v>177.2628861856268</v>
+        <v>208.0862597418601</v>
       </c>
       <c r="N8" t="n">
-        <v>280.238158676878</v>
+        <v>279.7338526612673</v>
       </c>
       <c r="O8" t="n">
-        <v>383.2134311681292</v>
+        <v>334.0533817210751</v>
       </c>
       <c r="P8" t="n">
-        <v>416.0617070353583</v>
+        <v>345.9128421879457</v>
       </c>
       <c r="Q8" t="n">
-        <v>416.0617070353583</v>
+        <v>416.0617070353613</v>
       </c>
       <c r="R8" t="n">
-        <v>371.9935530243189</v>
+        <v>371.9935530243224</v>
       </c>
       <c r="S8" t="n">
-        <v>266.9274653891275</v>
+        <v>266.9274653891301</v>
       </c>
       <c r="T8" t="n">
-        <v>266.9274653891275</v>
+        <v>266.9274653891301</v>
       </c>
       <c r="U8" t="n">
-        <v>266.9274653891275</v>
+        <v>266.9274653891301</v>
       </c>
       <c r="V8" t="n">
-        <v>161.861377753936</v>
+        <v>266.9274653891301</v>
       </c>
       <c r="W8" t="n">
-        <v>56.79529011874449</v>
+        <v>266.9274653891301</v>
       </c>
       <c r="X8" t="n">
-        <v>56.79529011874449</v>
+        <v>266.9274653891301</v>
       </c>
       <c r="Y8" t="n">
-        <v>56.79529011874449</v>
+        <v>266.9274653891301</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.321234140707165</v>
+        <v>67.1495788288405</v>
       </c>
       <c r="C9" t="n">
-        <v>8.321234140707165</v>
+        <v>67.1495788288405</v>
       </c>
       <c r="D9" t="n">
-        <v>8.321234140707165</v>
+        <v>67.1495788288405</v>
       </c>
       <c r="E9" t="n">
-        <v>8.321234140707165</v>
+        <v>67.1495788288405</v>
       </c>
       <c r="F9" t="n">
-        <v>8.321234140707165</v>
+        <v>67.1495788288405</v>
       </c>
       <c r="G9" t="n">
-        <v>8.321234140707165</v>
+        <v>67.1495788288405</v>
       </c>
       <c r="H9" t="n">
-        <v>8.321234140707165</v>
+        <v>67.1495788288405</v>
       </c>
       <c r="I9" t="n">
-        <v>8.321234140707165</v>
+        <v>8.321234140707226</v>
       </c>
       <c r="J9" t="n">
-        <v>8.321234140707165</v>
+        <v>8.321234140707226</v>
       </c>
       <c r="K9" t="n">
-        <v>16.52325184929666</v>
+        <v>16.52325184929717</v>
       </c>
       <c r="L9" t="n">
-        <v>73.87441800550268</v>
+        <v>73.8744180055038</v>
       </c>
       <c r="M9" t="n">
-        <v>160.157392002313</v>
+        <v>160.1573920023149</v>
       </c>
       <c r="N9" t="n">
-        <v>263.1326644935642</v>
+        <v>263.1326644935668</v>
       </c>
       <c r="O9" t="n">
-        <v>335.115125771927</v>
+        <v>335.1151257719303</v>
       </c>
       <c r="P9" t="n">
-        <v>416.0617070353583</v>
+        <v>416.0617070353613</v>
       </c>
       <c r="Q9" t="n">
-        <v>416.0617070353583</v>
+        <v>416.0617070353613</v>
       </c>
       <c r="R9" t="n">
-        <v>416.0617070353583</v>
+        <v>416.0617070353613</v>
       </c>
       <c r="S9" t="n">
-        <v>416.0617070353583</v>
+        <v>416.0617070353613</v>
       </c>
       <c r="T9" t="n">
-        <v>416.0617070353583</v>
+        <v>416.0617070353613</v>
       </c>
       <c r="U9" t="n">
-        <v>416.0617070353583</v>
+        <v>416.0617070353613</v>
       </c>
       <c r="V9" t="n">
-        <v>416.0617070353583</v>
+        <v>310.9956194001691</v>
       </c>
       <c r="W9" t="n">
-        <v>323.5194970462816</v>
+        <v>277.281754099225</v>
       </c>
       <c r="X9" t="n">
-        <v>218.4534094110901</v>
+        <v>172.2156664640328</v>
       </c>
       <c r="Y9" t="n">
-        <v>113.3873217758987</v>
+        <v>67.1495788288405</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>113.3873217758987</v>
+        <v>323.519497046284</v>
       </c>
       <c r="C10" t="n">
-        <v>113.3873217758987</v>
+        <v>323.519497046284</v>
       </c>
       <c r="D10" t="n">
-        <v>8.321234140707165</v>
+        <v>218.4534094110917</v>
       </c>
       <c r="E10" t="n">
-        <v>8.321234140707165</v>
+        <v>113.3873217758995</v>
       </c>
       <c r="F10" t="n">
-        <v>8.321234140707165</v>
+        <v>8.321234140707226</v>
       </c>
       <c r="G10" t="n">
-        <v>8.321234140707165</v>
+        <v>8.321234140707226</v>
       </c>
       <c r="H10" t="n">
-        <v>8.321234140707165</v>
+        <v>8.321234140707226</v>
       </c>
       <c r="I10" t="n">
-        <v>8.321234140707165</v>
+        <v>8.321234140707226</v>
       </c>
       <c r="J10" t="n">
-        <v>8.321234140707165</v>
+        <v>8.321234140707226</v>
       </c>
       <c r="K10" t="n">
-        <v>18.99088107272283</v>
+        <v>73.53581884437526</v>
       </c>
       <c r="L10" t="n">
-        <v>121.966153563974</v>
+        <v>176.5110913356272</v>
       </c>
       <c r="M10" t="n">
-        <v>224.9414260552252</v>
+        <v>224.9414260552271</v>
       </c>
       <c r="N10" t="n">
-        <v>224.9414260552252</v>
+        <v>224.9414260552271</v>
       </c>
       <c r="O10" t="n">
-        <v>327.9166985464764</v>
+        <v>327.916698546479</v>
       </c>
       <c r="P10" t="n">
-        <v>416.0617070353583</v>
+        <v>416.0617070353613</v>
       </c>
       <c r="Q10" t="n">
-        <v>393.1986877554854</v>
+        <v>393.1986877554887</v>
       </c>
       <c r="R10" t="n">
-        <v>393.1986877554854</v>
+        <v>393.1986877554887</v>
       </c>
       <c r="S10" t="n">
-        <v>393.1986877554854</v>
+        <v>393.1986877554887</v>
       </c>
       <c r="T10" t="n">
-        <v>393.1986877554854</v>
+        <v>393.1986877554887</v>
       </c>
       <c r="U10" t="n">
-        <v>393.1986877554854</v>
+        <v>393.1986877554887</v>
       </c>
       <c r="V10" t="n">
-        <v>393.1986877554854</v>
+        <v>393.1986877554887</v>
       </c>
       <c r="W10" t="n">
-        <v>393.1986877554854</v>
+        <v>393.1986877554887</v>
       </c>
       <c r="X10" t="n">
-        <v>288.1326001202939</v>
+        <v>393.1986877554887</v>
       </c>
       <c r="Y10" t="n">
-        <v>183.0665124851025</v>
+        <v>393.1986877554887</v>
       </c>
     </row>
     <row r="11">
@@ -5035,28 +5035,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,7 +5068,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K12" t="n">
-        <v>221.3431781811722</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969308</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2149.810879820876</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2149.810879820876</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1327.139029956954</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5272,19 +5272,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5305,7 +5305,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,7 +5314,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.043492616109</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.043492616109</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>1022.45315249681</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>801.6605733532803</v>
       </c>
     </row>
     <row r="17">
@@ -5506,22 +5506,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5542,22 +5542,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>95.584050252739</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>95.584050252739</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>316.6799057705107</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>174.9680746127088</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="20">
@@ -5749,25 +5749,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694706</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348531</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5892,19 +5892,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797186</v>
@@ -5913,10 +5913,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578602</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6612,7 +6612,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6682,22 +6682,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6715,22 +6715,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468472</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
         <v>1072.713683962606</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6928,49 +6928,49 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468472</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
         <v>1072.713683962606</v>
@@ -7031,7 +7031,7 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7074,25 +7074,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7162,43 +7162,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708873</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7377,7 +7377,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.395944601127</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,49 +7399,49 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.5380889459582</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>599.6019060180513</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.1865537761979</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7630,13 +7630,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>527.7722521572603</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>229.7425191625314</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7990,13 +7990,13 @@
         <v>220.1742634169181</v>
       </c>
       <c r="N2" t="n">
-        <v>219.453681055507</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O2" t="n">
         <v>206.3768508508745</v>
       </c>
       <c r="P2" t="n">
-        <v>210.9873633211545</v>
+        <v>226.149311848474</v>
       </c>
       <c r="Q2" t="n">
         <v>207.1020630664799</v>
@@ -8066,19 +8066,19 @@
         <v>137.3604083836059</v>
       </c>
       <c r="M3" t="n">
-        <v>123.047446830095</v>
+        <v>137.5967913765127</v>
       </c>
       <c r="N3" t="n">
-        <v>111.7499598249992</v>
+        <v>126.9119083523187</v>
       </c>
       <c r="O3" t="n">
         <v>124.673618687554</v>
       </c>
       <c r="P3" t="n">
-        <v>134.1392647042453</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q3" t="n">
-        <v>145.5280738211766</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8142,7 +8142,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>135.1282394249294</v>
+        <v>140.0448782407613</v>
       </c>
       <c r="M4" t="n">
         <v>144.1881980719757</v>
@@ -8154,7 +8154,7 @@
         <v>144.6920843289826</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8218,19 +8218,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>202.1809638361346</v>
+        <v>217.342912363454</v>
       </c>
       <c r="L5" t="n">
         <v>213.5488567752802</v>
       </c>
       <c r="M5" t="n">
-        <v>220.7868673978199</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N5" t="n">
-        <v>219.453681055507</v>
+        <v>218.8410770746052</v>
       </c>
       <c r="O5" t="n">
-        <v>220.9261953972922</v>
+        <v>221.538799378194</v>
       </c>
       <c r="P5" t="n">
         <v>226.149311848474</v>
@@ -8294,25 +8294,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>125.6774978810001</v>
       </c>
       <c r="L6" t="n">
-        <v>137.3604083836059</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M6" t="n">
         <v>138.2093953574145</v>
       </c>
       <c r="N6" t="n">
-        <v>126.2993043714169</v>
+        <v>126.9119083523187</v>
       </c>
       <c r="O6" t="n">
         <v>139.8355672148734</v>
       </c>
       <c r="P6" t="n">
-        <v>119.5899201578276</v>
+        <v>127.7689411517231</v>
       </c>
       <c r="Q6" t="n">
         <v>130.3661252938572</v>
@@ -8379,7 +8379,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>135.1282394249294</v>
+        <v>140.6574822216631</v>
       </c>
       <c r="M7" t="n">
         <v>144.1881980719757</v>
@@ -8388,10 +8388,10 @@
         <v>133.1833473911586</v>
       </c>
       <c r="O7" t="n">
-        <v>144.6920843289826</v>
+        <v>144.0794803480808</v>
       </c>
       <c r="P7" t="n">
-        <v>135.0065633140411</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>37.49822606405678</v>
+        <v>141.5136528228966</v>
       </c>
       <c r="K8" t="n">
-        <v>4.949091926399035</v>
+        <v>4.949091926398353</v>
       </c>
       <c r="L8" t="n">
-        <v>72.8807059949703</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>31.6441207796413</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>49.14721558731739</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>21.20082363672657</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>39.6634198842431</v>
+        <v>110.5208591240562</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>41.34161277437093</v>
+        <v>41.34161277437065</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>42.93674368175483</v>
+        <v>42.93674368175401</v>
       </c>
       <c r="Q9" t="n">
-        <v>24.46828871759034</v>
+        <v>24.46828871758997</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,19 +8613,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>51.64786960561</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>126.107653120612</v>
+        <v>126.1076531206123</v>
       </c>
       <c r="M10" t="n">
-        <v>124.0173869348077</v>
+        <v>68.9214901957657</v>
       </c>
       <c r="N10" t="n">
-        <v>11.5894634150699</v>
+        <v>11.58946341506953</v>
       </c>
       <c r="O10" t="n">
-        <v>135.2384436656257</v>
+        <v>135.2384436656261</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>2.330580173293129e-12</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.80843451460709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>211.5151132204107</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>105.0969227051396</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0.9259388694759565</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E28" t="n">
-        <v>20.61870490125435</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>39.70888054695405</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>24.63391537253449</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194225</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>100.1408962628957</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>10.85445046951733</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>795927.4564836873</v>
+        <v>795927.4564836872</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>774718.5412506659</v>
+        <v>774718.541250666</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>774718.541250666</v>
+        <v>774718.5412506659</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>774718.5412506663</v>
+        <v>774718.5412506659</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>774718.541250666</v>
+        <v>774718.5412506659</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>774718.5412506661</v>
+        <v>774718.5412506659</v>
       </c>
     </row>
     <row r="15">
@@ -26319,43 +26319,43 @@
         <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="G2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="M2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="N2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="O2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="O2" t="n">
-        <v>645717.2797520054</v>
-      </c>
       <c r="P2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>357912.3110366681</v>
+        <v>357912.3110366695</v>
       </c>
       <c r="E3" t="n">
-        <v>1080121.758724494</v>
+        <v>1080121.758724493</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3967.032860481818</v>
+        <v>3967.032860481986</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22488.01565909377</v>
+        <v>22488.01565909385</v>
       </c>
       <c r="M3" t="n">
-        <v>266322.5358175749</v>
+        <v>266322.5358175747</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>405703.6705393202</v>
       </c>
       <c r="D4" t="n">
-        <v>310629.0408162412</v>
+        <v>310629.0408162408</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744311</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744284</v>
@@ -26447,19 +26447,19 @@
         <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744337</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744344</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744322</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744322</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>35312.90995413795</v>
       </c>
       <c r="D5" t="n">
-        <v>49123.28007136607</v>
+        <v>49123.28007136614</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26527,43 +26527,43 @@
         <v>215816.8353979684</v>
       </c>
       <c r="D6" t="n">
-        <v>-60831.21603284906</v>
+        <v>-60831.21603284977</v>
       </c>
       <c r="E6" t="n">
-        <v>-544601.6444424976</v>
+        <v>-544289.0031135752</v>
       </c>
       <c r="F6" t="n">
-        <v>535520.1142819965</v>
+        <v>535832.7556109178</v>
       </c>
       <c r="G6" t="n">
-        <v>535520.1142819966</v>
+        <v>535832.7556109179</v>
       </c>
       <c r="H6" t="n">
-        <v>535520.1142819965</v>
+        <v>535832.755610918</v>
       </c>
       <c r="I6" t="n">
-        <v>535520.1142819964</v>
+        <v>535832.7556109182</v>
       </c>
       <c r="J6" t="n">
-        <v>531553.0814215152</v>
+        <v>531865.7227504359</v>
       </c>
       <c r="K6" t="n">
-        <v>535520.1142819964</v>
+        <v>535832.7556109182</v>
       </c>
       <c r="L6" t="n">
-        <v>513032.0986229032</v>
+        <v>513344.739951824</v>
       </c>
       <c r="M6" t="n">
-        <v>269197.5784644215</v>
+        <v>269510.219793343</v>
       </c>
       <c r="N6" t="n">
-        <v>535520.1142819966</v>
+        <v>535832.7556109179</v>
       </c>
       <c r="O6" t="n">
-        <v>535520.1142819969</v>
+        <v>535832.755610918</v>
       </c>
       <c r="P6" t="n">
-        <v>535520.1142819966</v>
+        <v>535832.7556109178</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>420.7129414875516</v>
+        <v>420.712941487553</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>15.16194852731947</v>
       </c>
       <c r="D4" t="n">
-        <v>104.0154267588396</v>
+        <v>104.0154267588403</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26819,16 +26819,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>385.6916807684263</v>
+        <v>385.6916807684277</v>
       </c>
       <c r="E3" t="n">
-        <v>947.2625588541221</v>
+        <v>947.2625588541205</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>88.8534782315201</v>
+        <v>88.85347823152085</v>
       </c>
       <c r="E4" t="n">
-        <v>1068.692861340809</v>
+        <v>1068.692861340808</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>88.85347823152055</v>
+        <v>88.85347823152085</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.692861340809</v>
+        <v>1068.692861340808</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>88.8534782315201</v>
+        <v>88.85347823152085</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.692861340809</v>
+        <v>1068.692861340808</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>393.5214014788485</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>189.8861735903263</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>134.5466831641278</v>
+        <v>125.8633331579598</v>
       </c>
       <c r="S2" t="n">
         <v>190.6498919990783</v>
@@ -27457,22 +27457,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>153.1785393870043</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>157.5465504609963</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>132.2831170373193</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>144.290436192538</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>129.9072638660644</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>122.1062398864198</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>152.0848725713084</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,13 +27548,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>131.8367058784608</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6656840978772</v>
+        <v>148.0813419534068</v>
       </c>
       <c r="I4" t="n">
         <v>153.551289182031</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.87383288310646</v>
+        <v>65.71188435578699</v>
       </c>
       <c r="R4" t="n">
         <v>174.4537986637794</v>
@@ -27666,7 +27666,7 @@
         <v>125.8633331579598</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8118405263978</v>
+        <v>190.6498919990783</v>
       </c>
       <c r="T5" t="n">
         <v>222.4795457699687</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>354.5691521511496</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>151.3712351225479</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>157.5465504609963</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>142.4831319280815</v>
       </c>
       <c r="F6" t="n">
         <v>129.9072638660644</v>
       </c>
       <c r="G6" t="n">
-        <v>123.9135441508763</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5079271034444</v>
+        <v>98.15328284058145</v>
       </c>
       <c r="I6" t="n">
         <v>86.80307722268739</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.48084390037957</v>
+        <v>80.3188953730601</v>
       </c>
       <c r="S6" t="n">
         <v>170.2839726213331</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>164.6700316546178</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>135.0311308737419</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27797,7 +27797,7 @@
         <v>153.551289182031</v>
       </c>
       <c r="J7" t="n">
-        <v>73.73230790717892</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>65.71188435578699</v>
       </c>
       <c r="R7" t="n">
-        <v>160.869456519309</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S7" t="n">
         <v>222.9160118599466</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>277.9149433134215</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>372.4981595311008</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>322.1536909117093</v>
+        <v>322.1536909117092</v>
       </c>
       <c r="I8" t="n">
-        <v>117.7698855770904</v>
+        <v>41.25629928714794</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>66.46395477053106</v>
+        <v>66.46395477053018</v>
       </c>
       <c r="T8" t="n">
         <v>215.6921474481042</v>
@@ -27912,10 +27912,10 @@
         <v>251.2103482432375</v>
       </c>
       <c r="V8" t="n">
-        <v>223.7368317112953</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>245.2255419585734</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>62.51775689102777</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27949,10 +27949,10 @@
         <v>136.438587440011</v>
       </c>
       <c r="H9" t="n">
-        <v>103.4957282255947</v>
+        <v>103.4957282255946</v>
       </c>
       <c r="I9" t="n">
-        <v>58.24006124125205</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>43.9728115139848</v>
+        <v>43.97281151398462</v>
       </c>
       <c r="S9" t="n">
         <v>154.8744983944059</v>
@@ -27991,16 +27991,16 @@
         <v>225.8818472307643</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>128.785160390585</v>
       </c>
       <c r="W9" t="n">
-        <v>160.0781952717337</v>
+        <v>218.318256512985</v>
       </c>
       <c r="X9" t="n">
-        <v>101.7575584446379</v>
+        <v>101.7575584446372</v>
       </c>
       <c r="Y9" t="n">
-        <v>101.6672690184648</v>
+        <v>101.667269018464</v>
       </c>
     </row>
     <row r="10">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>110.8495813798255</v>
+        <v>110.8495813798246</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>44.60004625937279</v>
+        <v>44.60004625937204</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>42.41853588772885</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>41.40562126409093</v>
       </c>
       <c r="G10" t="n">
         <v>167.2323166770878</v>
@@ -28031,10 +28031,10 @@
         <v>155.4819715767047</v>
       </c>
       <c r="I10" t="n">
-        <v>132.6354190183924</v>
+        <v>132.6354190183923</v>
       </c>
       <c r="J10" t="n">
-        <v>39.72172854374345</v>
+        <v>39.72172854374328</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>143.1811584493428</v>
+        <v>143.1811584493427</v>
       </c>
       <c r="S10" t="n">
         <v>210.7951765807159</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>121.6942286301976</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>114.5692265932552</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.691308307487643</v>
+        <v>1.691308307487649</v>
       </c>
       <c r="H8" t="n">
-        <v>17.32111120405783</v>
+        <v>17.32111120405789</v>
       </c>
       <c r="I8" t="n">
-        <v>65.20416352441744</v>
+        <v>65.20416352441765</v>
       </c>
       <c r="J8" t="n">
-        <v>143.5476784626295</v>
+        <v>143.54767846263</v>
       </c>
       <c r="K8" t="n">
-        <v>215.1407591185815</v>
+        <v>215.1407591185822</v>
       </c>
       <c r="L8" t="n">
-        <v>266.9011357338565</v>
+        <v>266.9011357338574</v>
       </c>
       <c r="M8" t="n">
-        <v>296.9789398471399</v>
+        <v>296.9789398471409</v>
       </c>
       <c r="N8" t="n">
-        <v>301.7843695757892</v>
+        <v>301.7843695757902</v>
       </c>
       <c r="O8" t="n">
-        <v>284.9664225932089</v>
+        <v>284.9664225932098</v>
       </c>
       <c r="P8" t="n">
-        <v>243.2122487521077</v>
+        <v>243.2122487521085</v>
       </c>
       <c r="Q8" t="n">
-        <v>182.6422699902064</v>
+        <v>182.642269990207</v>
       </c>
       <c r="R8" t="n">
-        <v>106.2416454702208</v>
+        <v>106.2416454702211</v>
       </c>
       <c r="S8" t="n">
-        <v>38.54068805687471</v>
+        <v>38.54068805687484</v>
       </c>
       <c r="T8" t="n">
-        <v>7.403702116027163</v>
+        <v>7.403702116027187</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1353046645990114</v>
+        <v>0.1353046645990119</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9049297231996394</v>
+        <v>0.9049297231996424</v>
       </c>
       <c r="H9" t="n">
-        <v>8.739716010901782</v>
+        <v>8.739716010901811</v>
       </c>
       <c r="I9" t="n">
-        <v>31.15657161016303</v>
+        <v>31.15657161016313</v>
       </c>
       <c r="J9" t="n">
-        <v>85.49601389229576</v>
+        <v>85.49601389229605</v>
       </c>
       <c r="K9" t="n">
-        <v>146.1263053466716</v>
+        <v>146.1263053466721</v>
       </c>
       <c r="L9" t="n">
-        <v>196.4848506447287</v>
+        <v>196.4848506447294</v>
       </c>
       <c r="M9" t="n">
-        <v>229.2885531107156</v>
+        <v>229.2885531107164</v>
       </c>
       <c r="N9" t="n">
-        <v>235.3571388421729</v>
+        <v>235.3571388421736</v>
       </c>
       <c r="O9" t="n">
-        <v>215.3058012912756</v>
+        <v>215.3058012912763</v>
       </c>
       <c r="P9" t="n">
-        <v>172.8018872309908</v>
+        <v>172.8018872309914</v>
       </c>
       <c r="Q9" t="n">
-        <v>115.5134853684312</v>
+        <v>115.5134853684315</v>
       </c>
       <c r="R9" t="n">
-        <v>56.18502263865833</v>
+        <v>56.18502263865852</v>
       </c>
       <c r="S9" t="n">
-        <v>16.80867270943189</v>
+        <v>16.80867270943194</v>
       </c>
       <c r="T9" t="n">
-        <v>3.647501822896791</v>
+        <v>3.647501822896802</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05953485021050262</v>
+        <v>0.05953485021050281</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7586626813709947</v>
+        <v>0.7586626813709971</v>
       </c>
       <c r="H10" t="n">
-        <v>6.745200930734848</v>
+        <v>6.74520093073487</v>
       </c>
       <c r="I10" t="n">
-        <v>22.81505590886592</v>
+        <v>22.81505590886599</v>
       </c>
       <c r="J10" t="n">
-        <v>53.63745157292932</v>
+        <v>53.63745157292949</v>
       </c>
       <c r="K10" t="n">
-        <v>88.14280970837554</v>
+        <v>88.14280970837582</v>
       </c>
       <c r="L10" t="n">
-        <v>112.7924499194659</v>
+        <v>112.7924499194663</v>
       </c>
       <c r="M10" t="n">
-        <v>118.9238237716369</v>
+        <v>118.9238237716373</v>
       </c>
       <c r="N10" t="n">
-        <v>116.0960810501633</v>
+        <v>116.0960810501637</v>
       </c>
       <c r="O10" t="n">
-        <v>107.2335215450566</v>
+        <v>107.233521545057</v>
       </c>
       <c r="P10" t="n">
-        <v>91.75680284508826</v>
+        <v>91.75680284508856</v>
       </c>
       <c r="Q10" t="n">
-        <v>63.52765416462029</v>
+        <v>63.5276541646205</v>
       </c>
       <c r="R10" t="n">
-        <v>34.11223292782672</v>
+        <v>34.11223292782682</v>
       </c>
       <c r="S10" t="n">
-        <v>13.22142145625633</v>
+        <v>13.22142145625637</v>
       </c>
       <c r="T10" t="n">
-        <v>3.241558729494249</v>
+        <v>3.24155872949426</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0413816008020543</v>
+        <v>0.04138160080205443</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>266.6561007250664</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>541.2980521010966</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,37 +32077,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>391.925066926462</v>
+        <v>270.4557004614718</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,40 +32311,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>732.482598761492</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,25 +32548,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558023</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,28 +34444,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34710,13 +34710,13 @@
         <v>14.54934454641767</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>15.16194852731947</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>15.16194852731947</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>14.54934454641767</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>14.54934454641767</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,7 +34862,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>9.632705730585775</v>
+        <v>14.54934454641767</v>
       </c>
       <c r="M4" t="n">
         <v>15.16194852731947</v>
@@ -34874,7 +34874,7 @@
         <v>15.16194852731947</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831899</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>14.54934454641767</v>
+      </c>
+      <c r="O5" t="n">
         <v>15.16194852731947</v>
-      </c>
-      <c r="N5" t="n">
-        <v>15.16194852731947</v>
-      </c>
-      <c r="O5" t="n">
-        <v>14.54934454641767</v>
       </c>
       <c r="P5" t="n">
         <v>15.16194852731947</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="N6" t="n">
-        <v>14.54934454641767</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="O6" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>8.179020993895531</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35099,7 +35099,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>9.632705730585775</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="M7" t="n">
         <v>15.16194852731947</v>
@@ -35108,10 +35108,10 @@
         <v>15.16194852731947</v>
       </c>
       <c r="O7" t="n">
-        <v>15.16194852731947</v>
+        <v>14.54934454641767</v>
       </c>
       <c r="P7" t="n">
-        <v>4.916638815831901</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>104.0154267588403</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>104.0154267588396</v>
+        <v>31.13472076387018</v>
       </c>
       <c r="M8" t="n">
-        <v>66.63270661986715</v>
+        <v>66.63270661986812</v>
       </c>
       <c r="N8" t="n">
-        <v>104.0154267588396</v>
+        <v>72.37130597919924</v>
       </c>
       <c r="O8" t="n">
-        <v>104.0154267588396</v>
+        <v>54.86821117152309</v>
       </c>
       <c r="P8" t="n">
-        <v>33.18007663356471</v>
+        <v>11.97925299683891</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>70.85743923981374</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>8.284866372312621</v>
+        <v>8.284866372313076</v>
       </c>
       <c r="L9" t="n">
-        <v>57.93047086485456</v>
+        <v>57.93047086485518</v>
       </c>
       <c r="M9" t="n">
-        <v>87.15451918869729</v>
+        <v>87.15451918869803</v>
       </c>
       <c r="N9" t="n">
-        <v>104.0154267588396</v>
+        <v>104.0154267588403</v>
       </c>
       <c r="O9" t="n">
-        <v>72.70955684683116</v>
+        <v>72.70955684683184</v>
       </c>
       <c r="P9" t="n">
-        <v>81.7642234984154</v>
+        <v>81.76422349841512</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>10.77742114345016</v>
+        <v>65.87331788249297</v>
       </c>
       <c r="L10" t="n">
-        <v>104.0154267588396</v>
+        <v>104.0154267588403</v>
       </c>
       <c r="M10" t="n">
-        <v>104.0154267588396</v>
+        <v>48.91953001979793</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>104.0154267588396</v>
+        <v>104.0154267588403</v>
       </c>
       <c r="P10" t="n">
-        <v>89.03536210998175</v>
+        <v>89.03536210998205</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>128.8146617507074</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>407.3236446867663</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902957</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>257.9506595121318</v>
+        <v>136.4812930471415</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394736</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819351</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113578</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36615,10 +36615,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -37083,7 +37083,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224318</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367793</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>257.9506595121318</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367785</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396434</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
